--- a/tutorials/EHU/EHU_R_tutorial/Data/EHU_questionnaire_data.xlsx
+++ b/tutorials/EHU/EHU_R_tutorial/Data/EHU_questionnaire_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Documents/GitHub/jamesbrandscience.github.io/tutorials/ERCEL/EHU_R_tutorial/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Documents/GitHub/jamesbrandscience.github.io/tutorials/EHU/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C8136F13-258D-5841-9E90-CA42C35CC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF09921E-7DF2-9642-ABD2-DBBA2EB5239E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1400" windowWidth="27640" windowHeight="16680" xr2:uid="{24C8C11F-EC4A-984E-8FEA-6423EE3F3DE4}"/>
+    <workbookView xWindow="1300" yWindow="680" windowWidth="27640" windowHeight="16680" xr2:uid="{A3B4487A-811B-5440-9DAD-9743D6D6B21E}"/>
   </bookViews>
   <sheets>
     <sheet name="EHU_questionnaire_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="79">
   <si>
     <t>Start_Date</t>
   </si>
@@ -64,7 +64,7 @@
     <t>User_Language</t>
   </si>
   <si>
-    <t>memorable word</t>
+    <t>day_Monday</t>
   </si>
   <si>
     <t>day_Tuesday</t>
@@ -253,7 +253,10 @@
     <t>10.30am-12.00pm,12.00-1.30pm,1.30-3.00pm,3.00-4.30pm</t>
   </si>
   <si>
-    <t>day_Monday</t>
+    <t>hello_test</t>
+  </si>
+  <si>
+    <t>memorable_word</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1117,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85ADA3C-47AC-3441-BB72-E87D5EF15779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD0D326-7D21-654D-84BC-B6C468D9B8D0}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1165,10 +1170,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>77</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -1227,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
